--- a/Udemy/udemy_courses.xlsx
+++ b/Udemy/udemy_courses.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Udemy Courses" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Udemy Courses" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,11 +453,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5183242</v>
+        <v>397068</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Binary Trading Volume Spread Analysis (VSA)</t>
+          <t>Selenium Webdriver with PYTHON from Scratch + Frameworks</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -474,11 +474,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3464482</v>
+        <v>571876</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Python for Financial Markets Analysis</t>
+          <t>10X SUPERHUMAN Learning: Speed Reading &amp; Memory Booster</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -495,11 +495,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4069268</v>
+        <v>1035000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The Advanced SQL Server Masterclass For Data Analysis</t>
+          <t>Docker Mastery: with Kubernetes +Swarm from a Docker Captain</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -516,11 +516,11 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2186622</v>
+        <v>1422920</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Python GUI Programming Using Tkinter and SQLite3</t>
+          <t>Algorithmic Trading &amp; Time Series Analysis in Python and R</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -537,11 +537,11 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2847630</v>
+        <v>1565838</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Working with Binary Data in Python 3</t>
+          <t>The Complete Full-Stack Web Development Bootcamp</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -558,11 +558,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3118336</v>
+        <v>2186622</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Advance Tally Prime + GST + Accounting  - Certificate Course</t>
+          <t>Python GUI Programming Using Tkinter and SQLite3</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -579,11 +579,11 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3195180</v>
+        <v>2847630</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GST Returns Course (Live Working) : Get Certified Today</t>
+          <t>Working with Binary Data in Python 3</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -600,11 +600,11 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3465656</v>
+        <v>3118336</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TallyPrime+GST+Payroll+IncomeTax+TDS+TCS+MSExcel (ComboPack)</t>
+          <t>Advance Tally Prime + GST + Accounting  - Certificate Course</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -621,11 +621,11 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1422920</v>
+        <v>3195180</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Algorithmic Trading &amp; Time Series Analysis in Python and R</t>
+          <t>GST Returns Course (Live Working) : Get Certified Today</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -642,11 +642,11 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5436376</v>
+        <v>3464482</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Binary Trading Sure Profit by All Concepts With CWRV Part 2</t>
+          <t>Python for Financial Markets Analysis</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -663,11 +663,11 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>5524980</v>
+        <v>3465656</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Forecasting Stock Market with ARIMA Model &amp; Time Series</t>
+          <t>TallyPrime+GST+Payroll+IncomeTax+TDS+TCS+MSExcel (ComboPack)</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -684,11 +684,11 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>5720876</v>
+        <v>3652610</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Machine Learning In Algorithmic Trading</t>
+          <t>Reading the markets with MC4 trading system</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -705,11 +705,11 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>5412670</v>
+        <v>3980730</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Candlestick Wicks Reading With Volume CWRV (part 1)</t>
+          <t>MySQL High Performance Tuning Guide</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -726,11 +726,11 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>5600412</v>
+        <v>4069268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Binary Options Delta River Volume Analysis For Sure Success</t>
+          <t>The Advanced SQL Server Masterclass For Data Analysis</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -747,11 +747,11 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>571876</v>
+        <v>4299801</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10X SUPERHUMAN Learning: Speed Reading &amp; Memory Booster</t>
+          <t>Algorithmic Options Trading on Interactive Brokers' Platform</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -768,11 +768,11 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5339746</v>
+        <v>4510136</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Market Microstructure for Traders</t>
+          <t>Python for Software Engineering Bootcamp</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -789,11 +789,11 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>4299801</v>
+        <v>4581660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Algorithmic Options Trading on Interactive Brokers' Platform</t>
+          <t>Statistical Arbitrage Bot Build in Crypto with Python (A-Z)</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -810,11 +810,11 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>4581660</v>
+        <v>4595938</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Statistical Arbitrage Bot Build in Crypto with Python (A-Z)</t>
+          <t>Computer Architecture and Computer Organization Masterclass</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -831,11 +831,11 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>5631164</v>
+        <v>4601546</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gradual Buying and Selling Strategy With Cryptocurrencies</t>
+          <t>Visual Studio Code for Developers 2025: Beginner to Advanced</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -852,11 +852,11 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>5763504</v>
+        <v>4668148</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A Primer on Quant Trading</t>
+          <t>Managing Options Positions in plain English</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -873,11 +873,11 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>5070128</v>
+        <v>4672206</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Core Python 170+ Case Studies For Beginners</t>
+          <t>Redis: The Complete Developer's Guide</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -894,11 +894,11 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5173778</v>
+        <v>5070128</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Master JSON Using Python</t>
+          <t>Core Python 170+ Case Studies For Beginners</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -915,11 +915,11 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>4510136</v>
+        <v>5173778</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Python for Software Engineering Bootcamp</t>
+          <t>Master JSON Using Python</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -936,11 +936,11 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>4601546</v>
+        <v>5183242</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Visual Studio Code for Developers 2025: Beginner to Advanced</t>
+          <t>Binary Trading Volume Spread Analysis (VSA)</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -957,11 +957,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>6024616</v>
+        <v>5339746</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Automate Video Editing with Python and MoviePy</t>
+          <t>Market Microstructure for Traders</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -978,11 +978,11 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1035000</v>
+        <v>5412670</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Docker Mastery: with Kubernetes +Swarm from a Docker Captain</t>
+          <t>Candlestick Wicks Reading With Volume CWRV (part 1)</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -999,11 +999,11 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>4672206</v>
+        <v>5436376</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Redis: The Complete Developer's Guide</t>
+          <t>Binary Trading Sure Profit by All Concepts With CWRV Part 2</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1020,11 +1020,11 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>3980730</v>
+        <v>5524980</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MySQL High Performance Tuning Guide</t>
+          <t>Forecasting Stock Market with ARIMA Model &amp; Time Series</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1041,11 +1041,11 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>5684142</v>
+        <v>5573566</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Complete Algorithmic Trading Course with Python, ChatGPT, ML</t>
+          <t>The Complete NUXT 3 Bootcamp: Full-Stack Guide</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1062,11 +1062,11 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>4668148</v>
+        <v>5600412</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Managing Options Positions in plain English</t>
+          <t>Binary Options Delta River Volume Analysis For Sure Success</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1083,11 +1083,11 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>4595938</v>
+        <v>5631164</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Computer Architecture and Computer Organization Masterclass</t>
+          <t>Gradual Buying and Selling Strategy With Cryptocurrencies</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1104,11 +1104,11 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>5752334</v>
+        <v>5684142</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HARMONIC PATTERNS ALGO-TRADING WITH PYTHON AND BINANCE&amp;BYBIT</t>
+          <t>Complete Algorithmic Trading Course with Python, ChatGPT, ML</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1125,11 +1125,11 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1565838</v>
+        <v>5720876</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The Complete Full-Stack Web Development Bootcamp</t>
+          <t>Machine Learning In Algorithmic Trading</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1146,11 +1146,11 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>3652610</v>
+        <v>5752334</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Reading the markets with MC4 trading system</t>
+          <t>HARMONIC PATTERNS ALGO-TRADING WITH PYTHON AND BINANCE&amp;BYBIT</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1167,11 +1167,11 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>5573566</v>
+        <v>5763504</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The Complete NUXT 3 Bootcamp: Full-Stack Guide</t>
+          <t>A Primer on Quant Trading</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1188,11 +1188,11 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>397068</v>
+        <v>6024616</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Selenium Webdriver with PYTHON from Scratch + Frameworks</t>
+          <t>Automate Video Editing with Python and MoviePy</t>
         </is>
       </c>
       <c r="D37" t="n">
